--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4879ED27-74B0-4AE4-8C0B-9A2521FB3CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77778AB8-BAD9-4B9C-8BBC-E8BE7DDCA431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mybatis" sheetId="1" r:id="rId1"/>
+    <sheet name="Spring" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,38 @@
   </si>
   <si>
     <t>mybatis接口dao方式单表CRUD，深入参数和返回值（OGNL表达式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耦合和解耦(反射替代new创建对象)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂模式创建JavaBean(java编写的可重用组件)解耦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ioc(Inversion of Control 控制反转)概述和作用(解耦)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring概述、发展历程、体系以及优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Xml的Ioc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationContext(立即加载)和BeanFactory(延迟加载)创建对象的策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,9 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,4 +597,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="119" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77778AB8-BAD9-4B9C-8BBC-E8BE7DDCA431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6518C1A-824C-43A3-A65A-BAE99A669842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,30 @@
   </si>
   <si>
     <t>8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml创建bean对象的三种方式(构造函数，工厂普通方法，工厂静态方法)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srping对象的生命周期（单例对象和多例对象）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring对象的作用范围（singleton，prototype，request,session,global-session）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring的DI(依赖注入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DI的三种注入方式(构造函数，set方法，注解)和可以注入的数据类型(基本类型和String，其他bean，复杂类型/集合类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ioc注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -652,6 +676,39 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6518C1A-824C-43A3-A65A-BAE99A669842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F30E0-E0D8-45F9-8412-A65BB5E53BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mybatis" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复习JDBC知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mybatis设计模式：构造者模式，工厂模式，代理模式</t>
   </si>
   <si>
@@ -156,6 +152,22 @@
   </si>
   <si>
     <t>Ioc注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ioc常用注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring整合Junit完成DI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用ThreadLocal和Connection控制事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC知识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,22 +522,22 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +545,7 @@
         <v>8.14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,7 +553,7 @@
         <v>8.15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,7 +561,7 @@
         <v>8.16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -557,27 +569,27 @@
         <v>8.17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -585,17 +597,17 @@
         <v>8.18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -603,17 +615,17 @@
         <v>8.19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -640,40 +652,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,32 +693,50 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0F30E0-E0D8-45F9-8412-A65BB5E53BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2279523-2B02-4FDF-A8EA-36165B940485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mybatis" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,26 @@
   </si>
   <si>
     <t>JDBC知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk动态代理,cglib动态代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态代理控制事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop的基本概念、基本术语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于xml配置aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于注解配置aop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -637,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -729,14 +749,42 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>8.23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2279523-2B02-4FDF-A8EA-36165B940485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A490E-D556-4CBD-8187-D7013A5DA325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>基于注解配置aop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JdbcTemplate的使用及在spring中的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JdbcDaoSupport的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于xml实现aop控制事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于注解实现aop控制事务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,6 +803,29 @@
         <v>40</v>
       </c>
     </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>8.24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463A490E-D556-4CBD-8187-D7013A5DA325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADD15E5-A55D-4C16-A0AD-2683EF122C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>基于注解实现aop控制事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring基于xml和注解的声明式事务控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring编程时事务控制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -826,6 +834,19 @@
         <v>44</v>
       </c>
     </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADD15E5-A55D-4C16-A0AD-2683EF122C61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABFD9A-2D72-4E24-AE70-9CB5447CDBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mybatis" sheetId="1" r:id="rId1"/>
     <sheet name="Spring" sheetId="2" r:id="rId2"/>
+    <sheet name="SpringMvc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +213,30 @@
   </si>
   <si>
     <t>spring编程时事务控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMvc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三层架构和MVC设计模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc组件和工作流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文乱码过滤器(filter-class = CharacterEncodingFilter)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义类型转换(实现Converter&lt;S, T&gt; ,配置ConversionServiceFactoryBean)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用注解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -852,4 +877,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE0B40-5CC2-4E12-92B8-9E4427C03615}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="82.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DABFD9A-2D72-4E24-AE70-9CB5447CDBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E2E97-F7E4-4DFA-B35F-90E6276E1DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,18 @@
   </si>
   <si>
     <t>常用注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commons文件上传和springmvc文件上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc异常处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -881,10 +893,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE0B40-5CC2-4E12-92B8-9E4427C03615}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -929,6 +941,26 @@
         <v>52</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E2E97-F7E4-4DFA-B35F-90E6276E1DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741486E-5852-4CE4-8246-A026C3FD09FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,15 +240,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常用注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commons文件上传和springmvc文件上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>springmvc异常处理</t>
+    <t>springmvc过滤器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc过滤静态文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc拦截器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssm整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commons文件上传、springmvc文件上传、跨域上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>springmvc异常处理器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +905,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE0B40-5CC2-4E12-92B8-9E4427C03615}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
@@ -948,17 +960,37 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741486E-5852-4CE4-8246-A026C3FD09FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E48C3B-3D3B-4ECC-B139-9AD5D34F7157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mybatis" sheetId="1" r:id="rId1"/>
     <sheet name="Spring" sheetId="2" r:id="rId2"/>
     <sheet name="SpringMvc" sheetId="3" r:id="rId3"/>
+    <sheet name="Maven" sheetId="4" r:id="rId4"/>
+    <sheet name="SSM" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +263,38 @@
   </si>
   <si>
     <t>springmvc异常处理器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven的pom标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven导入jar包冲突问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven的拆分和聚合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maven私服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSM项目练习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -732,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DA1D62-096C-4881-9872-10DF10F8C2DD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -907,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECCE0B40-5CC2-4E12-92B8-9E4427C03615}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -998,4 +1032,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F43CA-59DF-4327-8BF5-459C2131497D}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="71.44140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304D4B67-D99B-4B9B-B273-25D70404D6D8}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="112.88671875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>8.31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Learning.xlsx
+++ b/Learning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ssm2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E48C3B-3D3B-4ECC-B139-9AD5D34F7157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70ED3D4-965B-4FEA-A91D-A25F05212D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Mybatis</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>SSM项目练习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31-9.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring-security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,12 +1108,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="24.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="112.88671875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1112,25 +1125,26 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>8.31</v>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
-        <v>9.1</v>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>9.1999999999999993</v>
+      <c r="C4" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>